--- a/online_translators/xlsx_accuracy/yandex_smooth_compatibility.xlsx
+++ b/online_translators/xlsx_accuracy/yandex_smooth_compatibility.xlsx
@@ -20,16 +20,16 @@
     <t>inter_language</t>
   </si>
   <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
     <t>en</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>de</t>
   </si>
   <si>
     <t>fr</t>
@@ -381,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +389,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,73 +399,57 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0.6228956228956229</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6211180124223602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.5543237250554324</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6013986013986014</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5777777777777777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="n">
+        <v>0.5993265993265994</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.6447552447552447</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.6211180124223602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3946784922394678</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6587412587412588</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.453416149068323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="n">
+        <v>0.4409937888198758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.4944567627494457</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" t="n">
-        <v>0.5188470066518847</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D6" t="s"/>
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="C6" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
